--- a/grupos/6BEM - Estadisticos 20242.xlsx
+++ b/grupos/6BEM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
   <si>
     <t>Materia</t>
   </si>
@@ -191,12 +191,12 @@
     <t>Martínez Sota Luis Rey</t>
   </si>
   <si>
+    <t>Ochoa Martínez Mayeli</t>
+  </si>
+  <si>
     <t>Santiago Hernández Mariana</t>
   </si>
   <si>
-    <t>Ochoa Martínez Mayeli</t>
-  </si>
-  <si>
     <t>Velasco Sánchez David</t>
   </si>
   <si>
@@ -215,52 +215,55 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>JENKINS</t>
+  </si>
+  <si>
+    <t>PALOMINO</t>
+  </si>
+  <si>
     <t>CRESCENCIO</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>PALOMINO</t>
+    <t>MELCHOR</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
   </si>
   <si>
     <t>VENTURA</t>
   </si>
   <si>
-    <t>JENKINS</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
+    <t>CRUZ</t>
   </si>
   <si>
     <t>GIL</t>
   </si>
   <si>
-    <t>MELCHOR</t>
-  </si>
-  <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>DIAZ</t>
   </si>
   <si>
-    <t>ACOSTA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>DE LA CRUZ</t>
   </si>
   <si>
     <t>CONTRERAS</t>
@@ -272,31 +275,31 @@
     <t>SALOMON</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>MIGUEL ANTONIO</t>
+  </si>
+  <si>
+    <t>ARTHUR RICHARD</t>
+  </si>
+  <si>
+    <t>AARON MIGUEL</t>
+  </si>
+  <si>
     <t>DIEGO ARMANDO</t>
   </si>
   <si>
-    <t>MIGUEL ANTONIO</t>
-  </si>
-  <si>
-    <t>AARON MIGUEL</t>
-  </si>
-  <si>
-    <t>CRISTINA YAJANI</t>
-  </si>
-  <si>
-    <t>ARTHUR RICHARD</t>
+    <t>ALDAHIR</t>
   </si>
   <si>
     <t>JORGE IVAN</t>
@@ -308,16 +311,10 @@
     <t>DANIEL</t>
   </si>
   <si>
-    <t>AXEL MICHAELL</t>
+    <t>CARLOS YAEL</t>
   </si>
   <si>
     <t>JOSE RAUL</t>
-  </si>
-  <si>
-    <t>ALDAHIR</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
   </si>
   <si>
     <t>GEOVANNI</t>
@@ -831,22 +828,22 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -870,13 +867,13 @@
         <v>8</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X4">
         <v>8</v>
@@ -908,22 +905,22 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -985,22 +982,22 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1021,13 +1018,13 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1062,22 +1059,22 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1139,22 +1136,22 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1175,10 +1172,10 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V8">
         <v>10</v>
@@ -1216,22 +1213,22 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1252,13 +1249,13 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1267,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1293,22 +1290,22 @@
         <v>6</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1338,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X10">
         <v>8</v>
       </c>
       <c r="Y10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1370,22 +1367,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1406,7 +1403,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U11">
         <v>10</v>
@@ -1447,22 +1444,22 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1483,10 +1480,10 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V12">
         <v>10</v>
@@ -1495,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="X12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1524,22 +1521,22 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1560,7 +1557,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <v>7</v>
@@ -1569,10 +1566,10 @@
         <v>8</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -1601,22 +1598,22 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1640,16 +1637,16 @@
         <v>6</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y14">
         <v>9</v>
@@ -1678,22 +1675,22 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1714,19 +1711,19 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V15">
         <v>9</v>
       </c>
       <c r="W15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y15">
         <v>7</v>
@@ -1755,22 +1752,22 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1791,13 +1788,13 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U16">
         <v>5</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W16">
         <v>5</v>
@@ -1832,22 +1829,22 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1868,16 +1865,16 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U17">
         <v>5</v>
       </c>
       <c r="V17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17">
         <v>5</v>
@@ -1909,22 +1906,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1948,7 +1945,7 @@
         <v>8</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V18">
         <v>10</v>
@@ -1957,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="X18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1986,22 +1983,22 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -2031,7 +2028,7 @@
         <v>8</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>7</v>
@@ -2063,22 +2060,22 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2099,7 +2096,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U20">
         <v>10</v>
@@ -2111,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="X20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2140,22 +2137,22 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2179,19 +2176,19 @@
         <v>7</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2217,22 +2214,22 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2253,13 +2250,13 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U22">
         <v>6</v>
       </c>
       <c r="V22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W22">
         <v>5</v>
@@ -2294,22 +2291,22 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2330,13 +2327,13 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W23">
         <v>5</v>
@@ -2371,22 +2368,22 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2407,16 +2404,16 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24">
         <v>7</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X24">
         <v>5</v>
@@ -2448,22 +2445,22 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2484,10 +2481,10 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V25">
         <v>10</v>
@@ -2496,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="X25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y25">
         <v>8</v>
@@ -2525,22 +2522,22 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2561,19 +2558,19 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U26">
         <v>10</v>
       </c>
       <c r="V26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W26">
         <v>10</v>
       </c>
       <c r="X26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y26">
         <v>8</v>
@@ -2602,22 +2599,22 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2638,13 +2635,13 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W27">
         <v>10</v>
@@ -2679,22 +2676,22 @@
         <v>7</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2715,16 +2712,16 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <v>8</v>
@@ -2756,22 +2753,22 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2792,13 +2789,13 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W29">
         <v>9</v>
@@ -2807,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="Y29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2833,22 +2830,22 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2869,7 +2866,7 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>5</v>
@@ -2910,22 +2907,22 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2949,10 +2946,10 @@
         <v>5</v>
       </c>
       <c r="U31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W31">
         <v>6</v>
@@ -2987,22 +2984,22 @@
         <v>8</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -3023,19 +3020,19 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W32">
         <v>8</v>
       </c>
       <c r="X32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y32">
         <v>8</v>
@@ -3064,22 +3061,22 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -3141,22 +3138,22 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -3189,7 +3186,7 @@
         <v>6</v>
       </c>
       <c r="X34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y34">
         <v>5</v>
@@ -3331,7 +3328,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -3343,13 +3340,13 @@
         <v>100</v>
       </c>
       <c r="L4">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N4">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -3361,10 +3358,10 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3402,7 +3399,7 @@
         <v>100</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -3420,7 +3417,7 @@
         <v>100</v>
       </c>
       <c r="R5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -3449,40 +3446,40 @@
         <v>88</v>
       </c>
       <c r="H6">
+        <v>92.7</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>97.7</v>
+      </c>
+      <c r="L6">
         <v>84</v>
       </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>95.8</v>
-      </c>
-      <c r="L6">
-        <v>96</v>
-      </c>
       <c r="M6">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N6">
+        <v>92.7</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>97.7</v>
+      </c>
+      <c r="R6">
         <v>84</v>
       </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>95.8</v>
-      </c>
-      <c r="R6">
-        <v>96</v>
-      </c>
       <c r="S6">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3520,7 +3517,7 @@
         <v>100</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -3538,7 +3535,7 @@
         <v>100</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -3579,7 +3576,7 @@
         <v>100</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -3597,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="R8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S8">
         <v>100</v>
@@ -3635,13 +3632,13 @@
         <v>100</v>
       </c>
       <c r="K9">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="L9">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -3653,13 +3650,13 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="R9">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3685,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -3694,16 +3691,16 @@
         <v>100</v>
       </c>
       <c r="K10">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M10">
         <v>100</v>
       </c>
       <c r="N10">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -3712,10 +3709,10 @@
         <v>100</v>
       </c>
       <c r="Q10">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="R10">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S10">
         <v>100</v>
@@ -3744,7 +3741,7 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -3756,13 +3753,13 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M11">
         <v>100</v>
       </c>
       <c r="N11">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="O11">
         <v>100</v>
@@ -3774,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="R11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -3815,10 +3812,10 @@
         <v>100</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>100</v>
@@ -3833,10 +3830,10 @@
         <v>100</v>
       </c>
       <c r="R12">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S12">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3862,7 +3859,7 @@
         <v>92</v>
       </c>
       <c r="H13">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I13">
         <v>100</v>
@@ -3871,16 +3868,16 @@
         <v>100</v>
       </c>
       <c r="K13">
-        <v>95.8</v>
+        <v>97.7</v>
       </c>
       <c r="L13">
         <v>100</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N13">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O13">
         <v>100</v>
@@ -3889,13 +3886,13 @@
         <v>100</v>
       </c>
       <c r="Q13">
-        <v>95.8</v>
+        <v>97.7</v>
       </c>
       <c r="R13">
         <v>100</v>
       </c>
       <c r="S13">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3933,10 +3930,10 @@
         <v>100</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>100</v>
@@ -3951,10 +3948,10 @@
         <v>100</v>
       </c>
       <c r="R14">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S14">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3992,10 +3989,10 @@
         <v>100</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -4010,10 +4007,10 @@
         <v>100</v>
       </c>
       <c r="R15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="S15">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4039,7 +4036,7 @@
         <v>96</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -4048,31 +4045,31 @@
         <v>100</v>
       </c>
       <c r="K16">
-        <v>95.8</v>
+        <v>97.7</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M16">
+        <v>98</v>
+      </c>
+      <c r="N16">
+        <v>94.5</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>97.7</v>
+      </c>
+      <c r="R16">
         <v>96</v>
       </c>
-      <c r="N16">
-        <v>88</v>
-      </c>
-      <c r="O16">
-        <v>100</v>
-      </c>
-      <c r="P16">
-        <v>100</v>
-      </c>
-      <c r="Q16">
-        <v>95.8</v>
-      </c>
-      <c r="R16">
-        <v>100</v>
-      </c>
       <c r="S16">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4098,7 +4095,7 @@
         <v>96</v>
       </c>
       <c r="H17">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -4113,10 +4110,10 @@
         <v>100</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N17">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O17">
         <v>100</v>
@@ -4131,7 +4128,7 @@
         <v>100</v>
       </c>
       <c r="S17">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4157,7 +4154,7 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="I18">
         <v>100</v>
@@ -4175,7 +4172,7 @@
         <v>100</v>
       </c>
       <c r="N18">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="O18">
         <v>100</v>
@@ -4216,7 +4213,7 @@
         <v>84</v>
       </c>
       <c r="H19">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="I19">
         <v>100</v>
@@ -4228,28 +4225,28 @@
         <v>100</v>
       </c>
       <c r="L19">
+        <v>84</v>
+      </c>
+      <c r="M19">
         <v>92</v>
       </c>
-      <c r="M19">
+      <c r="N19">
+        <v>98.2</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
         <v>84</v>
       </c>
-      <c r="N19">
-        <v>96</v>
-      </c>
-      <c r="O19">
-        <v>100</v>
-      </c>
-      <c r="P19">
-        <v>100</v>
-      </c>
-      <c r="Q19">
-        <v>100</v>
-      </c>
-      <c r="R19">
+      <c r="S19">
         <v>92</v>
-      </c>
-      <c r="S19">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4334,40 +4331,40 @@
         <v>92</v>
       </c>
       <c r="H21">
+        <v>98.2</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
         <v>96</v>
       </c>
-      <c r="I21">
-        <v>100</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-      <c r="M21">
-        <v>92</v>
-      </c>
       <c r="N21">
+        <v>98.2</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21">
         <v>96</v>
-      </c>
-      <c r="O21">
-        <v>100</v>
-      </c>
-      <c r="P21">
-        <v>100</v>
-      </c>
-      <c r="Q21">
-        <v>100</v>
-      </c>
-      <c r="R21">
-        <v>100</v>
-      </c>
-      <c r="S21">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4393,40 +4390,40 @@
         <v>92</v>
       </c>
       <c r="H22">
+        <v>98.2</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L22">
         <v>96</v>
       </c>
-      <c r="I22">
-        <v>100</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-      <c r="K22">
-        <v>93.8</v>
-      </c>
-      <c r="L22">
-        <v>92</v>
-      </c>
       <c r="M22">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N22">
+        <v>98.2</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="R22">
         <v>96</v>
       </c>
-      <c r="O22">
-        <v>100</v>
-      </c>
-      <c r="P22">
-        <v>100</v>
-      </c>
-      <c r="Q22">
-        <v>93.8</v>
-      </c>
-      <c r="R22">
-        <v>92</v>
-      </c>
       <c r="S22">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4452,7 +4449,7 @@
         <v>92</v>
       </c>
       <c r="H23">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -4461,16 +4458,16 @@
         <v>100</v>
       </c>
       <c r="K23">
-        <v>95.8</v>
+        <v>97.7</v>
       </c>
       <c r="L23">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M23">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N23">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O23">
         <v>100</v>
@@ -4479,13 +4476,13 @@
         <v>100</v>
       </c>
       <c r="Q23">
-        <v>95.8</v>
+        <v>97.7</v>
       </c>
       <c r="R23">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="S23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4511,7 +4508,7 @@
         <v>88</v>
       </c>
       <c r="H24">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="I24">
         <v>100</v>
@@ -4520,16 +4517,16 @@
         <v>100</v>
       </c>
       <c r="K24">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="M24">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N24">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="O24">
         <v>100</v>
@@ -4538,13 +4535,13 @@
         <v>100</v>
       </c>
       <c r="Q24">
-        <v>93.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="R24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="S24">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4582,10 +4579,10 @@
         <v>100</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M25">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -4600,10 +4597,10 @@
         <v>100</v>
       </c>
       <c r="R25">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S25">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4700,7 +4697,7 @@
         <v>100</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M27">
         <v>100</v>
@@ -4718,7 +4715,7 @@
         <v>100</v>
       </c>
       <c r="R27">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S27">
         <v>100</v>
@@ -4747,7 +4744,7 @@
         <v>100</v>
       </c>
       <c r="H28">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I28">
         <v>100</v>
@@ -4756,7 +4753,7 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>95.8</v>
+        <v>97.7</v>
       </c>
       <c r="L28">
         <v>100</v>
@@ -4765,7 +4762,7 @@
         <v>100</v>
       </c>
       <c r="N28">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O28">
         <v>100</v>
@@ -4774,7 +4771,7 @@
         <v>100</v>
       </c>
       <c r="Q28">
-        <v>95.8</v>
+        <v>97.7</v>
       </c>
       <c r="R28">
         <v>100</v>
@@ -4818,7 +4815,7 @@
         <v>100</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M29">
         <v>100</v>
@@ -4836,7 +4833,7 @@
         <v>100</v>
       </c>
       <c r="R29">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S29">
         <v>100</v>
@@ -4874,10 +4871,10 @@
         <v>100</v>
       </c>
       <c r="K30">
-        <v>93.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="L30">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="M30">
         <v>100</v>
@@ -4892,10 +4889,10 @@
         <v>100</v>
       </c>
       <c r="Q30">
-        <v>93.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R30">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="S30">
         <v>100</v>
@@ -4924,40 +4921,40 @@
         <v>84</v>
       </c>
       <c r="H31">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>84</v>
+      </c>
+      <c r="M31">
         <v>92</v>
       </c>
-      <c r="I31">
-        <v>100</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="L31">
-        <v>88</v>
-      </c>
-      <c r="M31">
+      <c r="N31">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="R31">
         <v>84</v>
       </c>
-      <c r="N31">
+      <c r="S31">
         <v>92</v>
-      </c>
-      <c r="O31">
-        <v>100</v>
-      </c>
-      <c r="P31">
-        <v>100</v>
-      </c>
-      <c r="Q31">
-        <v>100</v>
-      </c>
-      <c r="R31">
-        <v>88</v>
-      </c>
-      <c r="S31">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4983,7 +4980,7 @@
         <v>96</v>
       </c>
       <c r="H32">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="I32">
         <v>100</v>
@@ -4998,10 +4995,10 @@
         <v>100</v>
       </c>
       <c r="M32">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N32">
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="O32">
         <v>100</v>
@@ -5016,7 +5013,7 @@
         <v>100</v>
       </c>
       <c r="S32">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5042,7 +5039,7 @@
         <v>96</v>
       </c>
       <c r="H33">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -5054,13 +5051,13 @@
         <v>100</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M33">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N33">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="O33">
         <v>100</v>
@@ -5072,10 +5069,10 @@
         <v>100</v>
       </c>
       <c r="R33">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="S33">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5101,7 +5098,7 @@
         <v>84</v>
       </c>
       <c r="H34">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -5113,13 +5110,13 @@
         <v>100</v>
       </c>
       <c r="L34">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M34">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N34">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O34">
         <v>100</v>
@@ -5131,10 +5128,10 @@
         <v>100</v>
       </c>
       <c r="R34">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S34">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5203,19 +5200,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>64.5</v>
+        <v>67.7</v>
       </c>
       <c r="G2" s="2">
-        <v>35.5</v>
+        <v>32.3</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5235,19 +5232,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>74.2</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2">
-        <v>25.8</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5258,7 +5255,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -5267,19 +5264,19 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>77.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G4" s="2">
-        <v>22.6</v>
+        <v>19.4</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5290,7 +5287,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -5299,19 +5296,19 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>80.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="G5" s="2">
-        <v>19.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5331,19 +5328,19 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>80.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="G6" s="2">
-        <v>19.4</v>
+        <v>6.5</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5375,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5428,7 +5425,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5463,7 +5460,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920033</v>
+        <v>22330051920031</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -5475,10 +5472,10 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5486,7 +5483,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920033</v>
+        <v>22330051920031</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -5498,10 +5495,10 @@
         <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920033</v>
+        <v>22330051920031</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -5521,10 +5518,10 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5532,22 +5529,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920033</v>
+        <v>22330051920038</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5567,10 +5564,10 @@
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5590,10 +5587,10 @@
         <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5601,22 +5598,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920038</v>
+        <v>22330051920189</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5624,22 +5621,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920038</v>
+        <v>22330051920189</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5647,7 +5644,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920043</v>
+        <v>22330051920189</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -5659,10 +5656,10 @@
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -5673,13 +5670,13 @@
         <v>22330051920043</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -5696,19 +5693,19 @@
         <v>22330051920043</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -5719,13 +5716,13 @@
         <v>22330051920043</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -5739,22 +5736,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>22330051920336</v>
+        <v>22330051920033</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -5762,22 +5759,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>22330051920336</v>
+        <v>22330051920033</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -5785,22 +5782,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>22330051920336</v>
+        <v>22330051920191</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -5808,16 +5805,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>22330051920336</v>
+        <v>22330051920191</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -5831,22 +5828,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>22330051920189</v>
+        <v>22330051920327</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -5854,22 +5851,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>22330051920189</v>
+        <v>22330051920327</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -5877,22 +5874,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>22330051920189</v>
+        <v>22330051920045</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -5900,22 +5897,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>22330051920327</v>
+        <v>22330051920045</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -5923,22 +5920,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>22330051920327</v>
+        <v>22330051920049</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -5946,16 +5943,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>22330051920327</v>
+        <v>22330051920049</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -5969,22 +5966,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22330051920045</v>
+        <v>22330051920034</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -5992,22 +5989,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>22330051920045</v>
+        <v>22330051920036</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -6015,16 +6012,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>22330051920045</v>
+        <v>22330051920051</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -6033,190 +6030,6 @@
         <v>55</v>
       </c>
       <c r="G26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>22330051920049</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>22330051920049</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>22330051920049</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>22330051920029</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>22330051920036</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>22330051920191</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>22330051920048</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>22330051920051</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34">
         <v>5</v>
       </c>
     </row>
